--- a/Attrition Sample 11.xlsx
+++ b/Attrition Sample 11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UBC\Studies\TA\BABS508\Datasets\Final to submit\Attrition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\BABS508-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15A132B-5CB7-4D21-9707-2F1486E4B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E8791F-89DA-41DC-9E53-99283ADCA53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{41F52184-8D55-43F2-8D18-CBD8E0A6F307}"/>
+    <workbookView xWindow="-98" yWindow="277" windowWidth="21795" windowHeight="13320" xr2:uid="{41F52184-8D55-43F2-8D18-CBD8E0A6F307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,13 +514,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBC3FDC-94A7-4BFD-9769-513A08A8E641}">
   <dimension ref="A1:T526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A526" sqref="A526"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>901</v>
       </c>
@@ -644,7 +666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>902</v>
       </c>
@@ -706,7 +728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>903</v>
       </c>
@@ -768,7 +790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>904</v>
       </c>
@@ -830,7 +852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>905</v>
       </c>
@@ -892,7 +914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>906</v>
       </c>
@@ -954,7 +976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>907</v>
       </c>
@@ -1016,7 +1038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>908</v>
       </c>
@@ -1078,7 +1100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>909</v>
       </c>
@@ -1140,7 +1162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>910</v>
       </c>
@@ -1202,7 +1224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>911</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>912</v>
       </c>
@@ -1326,7 +1348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>913</v>
       </c>
@@ -1388,7 +1410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>914</v>
       </c>
@@ -1450,7 +1472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>915</v>
       </c>
@@ -1512,7 +1534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>916</v>
       </c>
@@ -1574,7 +1596,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>917</v>
       </c>
@@ -1636,7 +1658,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>918</v>
       </c>
@@ -1698,7 +1720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>919</v>
       </c>
@@ -1760,7 +1782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>920</v>
       </c>
@@ -1822,7 +1844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>921</v>
       </c>
@@ -1884,7 +1906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>922</v>
       </c>
@@ -1946,7 +1968,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>923</v>
       </c>
@@ -2008,7 +2030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>924</v>
       </c>
@@ -2070,7 +2092,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>925</v>
       </c>
@@ -2132,7 +2154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>926</v>
       </c>
@@ -2194,7 +2216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>927</v>
       </c>
@@ -2256,7 +2278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>928</v>
       </c>
@@ -2318,7 +2340,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>929</v>
       </c>
@@ -2380,7 +2402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>930</v>
       </c>
@@ -2442,7 +2464,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>931</v>
       </c>
@@ -2504,7 +2526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>932</v>
       </c>
@@ -2566,7 +2588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>933</v>
       </c>
@@ -2628,7 +2650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>934</v>
       </c>
@@ -2690,7 +2712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>935</v>
       </c>
@@ -2752,7 +2774,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>936</v>
       </c>
@@ -2814,7 +2836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>937</v>
       </c>
@@ -2876,7 +2898,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>938</v>
       </c>
@@ -2938,7 +2960,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>939</v>
       </c>
@@ -3000,7 +3022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>940</v>
       </c>
@@ -3062,7 +3084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>941</v>
       </c>
@@ -3124,7 +3146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>942</v>
       </c>
@@ -3186,7 +3208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>943</v>
       </c>
@@ -3248,7 +3270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>944</v>
       </c>
@@ -3310,7 +3332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>945</v>
       </c>
@@ -3372,7 +3394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>946</v>
       </c>
@@ -3434,7 +3456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>947</v>
       </c>
@@ -3496,7 +3518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>948</v>
       </c>
@@ -3558,7 +3580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>949</v>
       </c>
@@ -3620,7 +3642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>950</v>
       </c>
@@ -3682,7 +3704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>951</v>
       </c>
@@ -3744,7 +3766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>952</v>
       </c>
@@ -3806,7 +3828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>953</v>
       </c>
@@ -3868,7 +3890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>954</v>
       </c>
@@ -3930,7 +3952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>955</v>
       </c>
@@ -3992,7 +4014,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>956</v>
       </c>
@@ -4054,7 +4076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>957</v>
       </c>
@@ -4116,7 +4138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>958</v>
       </c>
@@ -4178,7 +4200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>959</v>
       </c>
@@ -4240,7 +4262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>960</v>
       </c>
@@ -4302,7 +4324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>961</v>
       </c>
@@ -4364,7 +4386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>962</v>
       </c>
@@ -4426,7 +4448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>963</v>
       </c>
@@ -4488,7 +4510,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>964</v>
       </c>
@@ -4550,7 +4572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>965</v>
       </c>
@@ -4612,7 +4634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>966</v>
       </c>
@@ -4674,7 +4696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>967</v>
       </c>
@@ -4736,7 +4758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>968</v>
       </c>
@@ -4798,7 +4820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>969</v>
       </c>
@@ -4860,7 +4882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>970</v>
       </c>
@@ -4922,7 +4944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>971</v>
       </c>
@@ -4984,7 +5006,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>972</v>
       </c>
@@ -5046,7 +5068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>973</v>
       </c>
@@ -5108,7 +5130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>974</v>
       </c>
@@ -5170,7 +5192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>975</v>
       </c>
@@ -5232,7 +5254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>976</v>
       </c>
@@ -5294,7 +5316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>977</v>
       </c>
@@ -5356,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>978</v>
       </c>
@@ -5418,7 +5440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>979</v>
       </c>
@@ -5480,7 +5502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>980</v>
       </c>
@@ -5542,7 +5564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>981</v>
       </c>
@@ -5604,7 +5626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>982</v>
       </c>
@@ -5666,7 +5688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>983</v>
       </c>
@@ -5728,7 +5750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>984</v>
       </c>
@@ -5790,7 +5812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>985</v>
       </c>
@@ -5852,7 +5874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>986</v>
       </c>
@@ -5914,7 +5936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>987</v>
       </c>
@@ -5976,7 +5998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>988</v>
       </c>
@@ -6038,7 +6060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>989</v>
       </c>
@@ -6100,7 +6122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>990</v>
       </c>
@@ -6162,7 +6184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>991</v>
       </c>
@@ -6224,7 +6246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>992</v>
       </c>
@@ -6286,7 +6308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>993</v>
       </c>
@@ -6348,7 +6370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>994</v>
       </c>
@@ -6410,7 +6432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>995</v>
       </c>
@@ -6472,7 +6494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>996</v>
       </c>
@@ -6534,7 +6556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>997</v>
       </c>
@@ -6596,7 +6618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>998</v>
       </c>
@@ -6658,7 +6680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>999</v>
       </c>
@@ -6720,7 +6742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1000</v>
       </c>
@@ -6782,7 +6804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1001</v>
       </c>
@@ -6844,7 +6866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1002</v>
       </c>
@@ -6906,7 +6928,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1003</v>
       </c>
@@ -6968,7 +6990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1004</v>
       </c>
@@ -7030,7 +7052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1005</v>
       </c>
@@ -7092,7 +7114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1006</v>
       </c>
@@ -7154,7 +7176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1007</v>
       </c>
@@ -7216,7 +7238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1008</v>
       </c>
@@ -7278,7 +7300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1009</v>
       </c>
@@ -7340,7 +7362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1010</v>
       </c>
@@ -7402,7 +7424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1011</v>
       </c>
@@ -7464,7 +7486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1012</v>
       </c>
@@ -7526,7 +7548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1013</v>
       </c>
@@ -7588,7 +7610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1014</v>
       </c>
@@ -7650,7 +7672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1015</v>
       </c>
@@ -7712,7 +7734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1016</v>
       </c>
@@ -7774,7 +7796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1017</v>
       </c>
@@ -7836,7 +7858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1018</v>
       </c>
@@ -7898,7 +7920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1019</v>
       </c>
@@ -7960,7 +7982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1020</v>
       </c>
@@ -8022,7 +8044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1021</v>
       </c>
@@ -8084,7 +8106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1022</v>
       </c>
@@ -8146,7 +8168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1023</v>
       </c>
@@ -8208,7 +8230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1024</v>
       </c>
@@ -8270,7 +8292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1025</v>
       </c>
@@ -8332,7 +8354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1026</v>
       </c>
@@ -8394,7 +8416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1027</v>
       </c>
@@ -8456,7 +8478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1028</v>
       </c>
@@ -8518,7 +8540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>1029</v>
       </c>
@@ -8580,7 +8602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1030</v>
       </c>
@@ -8642,7 +8664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1031</v>
       </c>
@@ -8704,7 +8726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>1032</v>
       </c>
@@ -8766,7 +8788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1033</v>
       </c>
@@ -8828,7 +8850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>1034</v>
       </c>
@@ -8890,7 +8912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>1035</v>
       </c>
@@ -8952,7 +8974,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1036</v>
       </c>
@@ -9014,7 +9036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1037</v>
       </c>
@@ -9076,7 +9098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>1038</v>
       </c>
@@ -9138,7 +9160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1039</v>
       </c>
@@ -9200,7 +9222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1040</v>
       </c>
@@ -9262,7 +9284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1041</v>
       </c>
@@ -9324,7 +9346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1042</v>
       </c>
@@ -9386,7 +9408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1043</v>
       </c>
@@ -9448,7 +9470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1044</v>
       </c>
@@ -9510,7 +9532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1045</v>
       </c>
@@ -9572,7 +9594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>1046</v>
       </c>
@@ -9634,7 +9656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1047</v>
       </c>
@@ -9696,7 +9718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1048</v>
       </c>
@@ -9758,7 +9780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1049</v>
       </c>
@@ -9820,7 +9842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1050</v>
       </c>
@@ -9882,7 +9904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>1051</v>
       </c>
@@ -9944,7 +9966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1052</v>
       </c>
@@ -10006,7 +10028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1053</v>
       </c>
@@ -10068,7 +10090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1054</v>
       </c>
@@ -10130,7 +10152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1055</v>
       </c>
@@ -10192,7 +10214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>1056</v>
       </c>
@@ -10254,7 +10276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>1057</v>
       </c>
@@ -10316,7 +10338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1058</v>
       </c>
@@ -10378,7 +10400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1059</v>
       </c>
@@ -10440,7 +10462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1060</v>
       </c>
@@ -10502,7 +10524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>1061</v>
       </c>
@@ -10564,7 +10586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>1062</v>
       </c>
@@ -10626,7 +10648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>1063</v>
       </c>
@@ -10688,7 +10710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1064</v>
       </c>
@@ -10750,7 +10772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1065</v>
       </c>
@@ -10812,7 +10834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1066</v>
       </c>
@@ -10874,7 +10896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>1067</v>
       </c>
@@ -10936,7 +10958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1068</v>
       </c>
@@ -10998,7 +11020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1069</v>
       </c>
@@ -11060,7 +11082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>1070</v>
       </c>
@@ -11122,7 +11144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1071</v>
       </c>
@@ -11184,7 +11206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1072</v>
       </c>
@@ -11246,7 +11268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1073</v>
       </c>
@@ -11308,7 +11330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1074</v>
       </c>
@@ -11370,7 +11392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1075</v>
       </c>
@@ -11432,7 +11454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>1076</v>
       </c>
@@ -11494,7 +11516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>1077</v>
       </c>
@@ -11556,7 +11578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1078</v>
       </c>
@@ -11618,7 +11640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>1079</v>
       </c>
@@ -11680,7 +11702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>1080</v>
       </c>
@@ -11742,7 +11764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>1081</v>
       </c>
@@ -11804,7 +11826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1082</v>
       </c>
@@ -11866,7 +11888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1083</v>
       </c>
@@ -11928,7 +11950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>1084</v>
       </c>
@@ -11990,7 +12012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1085</v>
       </c>
@@ -12052,7 +12074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1086</v>
       </c>
@@ -12114,7 +12136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1087</v>
       </c>
@@ -12176,7 +12198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1088</v>
       </c>
@@ -12238,7 +12260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1089</v>
       </c>
@@ -12300,7 +12322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>1090</v>
       </c>
@@ -12362,7 +12384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1091</v>
       </c>
@@ -12424,7 +12446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1092</v>
       </c>
@@ -12486,7 +12508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1093</v>
       </c>
@@ -12548,7 +12570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>1094</v>
       </c>
@@ -12610,7 +12632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1095</v>
       </c>
@@ -12672,7 +12694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>1096</v>
       </c>
@@ -12734,7 +12756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>1097</v>
       </c>
@@ -12796,7 +12818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>1098</v>
       </c>
@@ -12858,7 +12880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>1099</v>
       </c>
@@ -12920,7 +12942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>1100</v>
       </c>
@@ -12982,7 +13004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>1101</v>
       </c>
@@ -13044,7 +13066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>1102</v>
       </c>
@@ -13106,7 +13128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>1103</v>
       </c>
@@ -13168,7 +13190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1104</v>
       </c>
@@ -13230,7 +13252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>1105</v>
       </c>
@@ -13292,7 +13314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1106</v>
       </c>
@@ -13354,7 +13376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>1107</v>
       </c>
@@ -13416,7 +13438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>1108</v>
       </c>
@@ -13478,7 +13500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>1109</v>
       </c>
@@ -13540,7 +13562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1110</v>
       </c>
@@ -13602,7 +13624,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>1111</v>
       </c>
@@ -13664,7 +13686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>1112</v>
       </c>
@@ -13726,7 +13748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>1113</v>
       </c>
@@ -13788,7 +13810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>1114</v>
       </c>
@@ -13850,7 +13872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>1115</v>
       </c>
@@ -13912,7 +13934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>1116</v>
       </c>
@@ -13974,7 +13996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>1117</v>
       </c>
@@ -14036,7 +14058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>1118</v>
       </c>
@@ -14098,7 +14120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>1119</v>
       </c>
@@ -14160,7 +14182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>1120</v>
       </c>
@@ -14222,7 +14244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>1121</v>
       </c>
@@ -14284,7 +14306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>1122</v>
       </c>
@@ -14346,7 +14368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>1123</v>
       </c>
@@ -14408,7 +14430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>1124</v>
       </c>
@@ -14470,7 +14492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>1125</v>
       </c>
@@ -14532,7 +14554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>1126</v>
       </c>
@@ -14594,7 +14616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>1127</v>
       </c>
@@ -14656,7 +14678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>1128</v>
       </c>
@@ -14718,7 +14740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>1129</v>
       </c>
@@ -14780,7 +14802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>1130</v>
       </c>
@@ -14842,7 +14864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>1131</v>
       </c>
@@ -14904,7 +14926,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>1132</v>
       </c>
@@ -14966,7 +14988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>1133</v>
       </c>
@@ -15028,7 +15050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>1134</v>
       </c>
@@ -15090,7 +15112,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>1135</v>
       </c>
@@ -15152,7 +15174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>1136</v>
       </c>
@@ -15214,7 +15236,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>1137</v>
       </c>
@@ -15276,7 +15298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>1138</v>
       </c>
@@ -15338,7 +15360,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>1139</v>
       </c>
@@ -15400,7 +15422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>1140</v>
       </c>
@@ -15462,7 +15484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>1141</v>
       </c>
@@ -15524,7 +15546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>1142</v>
       </c>
@@ -15586,7 +15608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>1143</v>
       </c>
@@ -15648,7 +15670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>1144</v>
       </c>
@@ -15710,7 +15732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>1145</v>
       </c>
@@ -15772,7 +15794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>1146</v>
       </c>
@@ -15834,7 +15856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>1147</v>
       </c>
@@ -15896,7 +15918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>1148</v>
       </c>
@@ -15958,7 +15980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>1149</v>
       </c>
@@ -16020,7 +16042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>1150</v>
       </c>
@@ -16082,7 +16104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>1151</v>
       </c>
@@ -16144,7 +16166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>1152</v>
       </c>
@@ -16206,7 +16228,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>1153</v>
       </c>
@@ -16268,7 +16290,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>1154</v>
       </c>
@@ -16330,7 +16352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>1155</v>
       </c>
@@ -16392,7 +16414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>1156</v>
       </c>
@@ -16454,7 +16476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>1157</v>
       </c>
@@ -16516,7 +16538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>1158</v>
       </c>
@@ -16578,7 +16600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>1159</v>
       </c>
@@ -16640,7 +16662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>1160</v>
       </c>
@@ -16702,7 +16724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>1161</v>
       </c>
@@ -16764,7 +16786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>1162</v>
       </c>
@@ -16826,7 +16848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>1163</v>
       </c>
@@ -16888,7 +16910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>1164</v>
       </c>
@@ -16950,7 +16972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>1165</v>
       </c>
@@ -17012,7 +17034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>1166</v>
       </c>
@@ -17074,7 +17096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>1167</v>
       </c>
@@ -17136,7 +17158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>1168</v>
       </c>
@@ -17198,7 +17220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>1169</v>
       </c>
@@ -17260,7 +17282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>1170</v>
       </c>
@@ -17322,7 +17344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>1171</v>
       </c>
@@ -17384,7 +17406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>1172</v>
       </c>
@@ -17446,7 +17468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>1173</v>
       </c>
@@ -17508,7 +17530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>1174</v>
       </c>
@@ -17570,7 +17592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>1175</v>
       </c>
@@ -17632,7 +17654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>1176</v>
       </c>
@@ -17694,7 +17716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>1177</v>
       </c>
@@ -17756,7 +17778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>1178</v>
       </c>
@@ -17818,7 +17840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>1179</v>
       </c>
@@ -17880,7 +17902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>1180</v>
       </c>
@@ -17942,7 +17964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>1181</v>
       </c>
@@ -18004,7 +18026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>1182</v>
       </c>
@@ -18066,7 +18088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>1183</v>
       </c>
@@ -18128,7 +18150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>1184</v>
       </c>
@@ -18190,7 +18212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>1185</v>
       </c>
@@ -18252,7 +18274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>1186</v>
       </c>
@@ -18314,7 +18336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>1187</v>
       </c>
@@ -18376,7 +18398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>1188</v>
       </c>
@@ -18438,7 +18460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>1189</v>
       </c>
@@ -18500,7 +18522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>1190</v>
       </c>
@@ -18562,7 +18584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>1191</v>
       </c>
@@ -18624,7 +18646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>1192</v>
       </c>
@@ -18686,7 +18708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>1193</v>
       </c>
@@ -18748,7 +18770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>1194</v>
       </c>
@@ -18810,7 +18832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>1195</v>
       </c>
@@ -18872,7 +18894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>1196</v>
       </c>
@@ -18934,7 +18956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>1197</v>
       </c>
@@ -18996,7 +19018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>1198</v>
       </c>
@@ -19058,7 +19080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>1199</v>
       </c>
@@ -19120,7 +19142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>1200</v>
       </c>
@@ -19182,7 +19204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1201</v>
       </c>
@@ -19244,7 +19266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>1202</v>
       </c>
@@ -19306,7 +19328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>1203</v>
       </c>
@@ -19368,7 +19390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>1204</v>
       </c>
@@ -19430,7 +19452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>1205</v>
       </c>
@@ -19492,7 +19514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>1206</v>
       </c>
@@ -19554,7 +19576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>1207</v>
       </c>
@@ -19616,7 +19638,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>1208</v>
       </c>
@@ -19678,7 +19700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>1209</v>
       </c>
@@ -19740,7 +19762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>1210</v>
       </c>
@@ -19802,7 +19824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>1211</v>
       </c>
@@ -19864,7 +19886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>1212</v>
       </c>
@@ -19926,7 +19948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>1213</v>
       </c>
@@ -19988,7 +20010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>1214</v>
       </c>
@@ -20050,7 +20072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>1215</v>
       </c>
@@ -20112,7 +20134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>1216</v>
       </c>
@@ -20174,7 +20196,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>1217</v>
       </c>
@@ -20236,7 +20258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>1218</v>
       </c>
@@ -20298,7 +20320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>1219</v>
       </c>
@@ -20360,7 +20382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>1220</v>
       </c>
@@ -20422,7 +20444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>1221</v>
       </c>
@@ -20484,7 +20506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>1222</v>
       </c>
@@ -20546,7 +20568,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>1223</v>
       </c>
@@ -20608,7 +20630,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>1224</v>
       </c>
@@ -20670,7 +20692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>1225</v>
       </c>
@@ -20732,7 +20754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>1226</v>
       </c>
@@ -20794,7 +20816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>1227</v>
       </c>
@@ -20856,7 +20878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>1228</v>
       </c>
@@ -20918,7 +20940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>1229</v>
       </c>
@@ -20980,7 +21002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>1230</v>
       </c>
@@ -21042,7 +21064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>1231</v>
       </c>
@@ -21104,7 +21126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>1232</v>
       </c>
@@ -21166,7 +21188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>1233</v>
       </c>
@@ -21228,7 +21250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>1234</v>
       </c>
@@ -21290,7 +21312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>1235</v>
       </c>
@@ -21352,7 +21374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>1236</v>
       </c>
@@ -21414,7 +21436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>1237</v>
       </c>
@@ -21476,7 +21498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>1238</v>
       </c>
@@ -21538,7 +21560,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>1239</v>
       </c>
@@ -21600,7 +21622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>1240</v>
       </c>
@@ -21662,7 +21684,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>1241</v>
       </c>
@@ -21724,7 +21746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>1242</v>
       </c>
@@ -21786,7 +21808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>1243</v>
       </c>
@@ -21848,7 +21870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>1244</v>
       </c>
@@ -21910,7 +21932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>1245</v>
       </c>
@@ -21972,7 +21994,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>1246</v>
       </c>
@@ -22034,7 +22056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>1247</v>
       </c>
@@ -22096,7 +22118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>1248</v>
       </c>
@@ -22158,7 +22180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>1249</v>
       </c>
@@ -22220,7 +22242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>1250</v>
       </c>
@@ -22282,7 +22304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>1251</v>
       </c>
@@ -22344,7 +22366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>1252</v>
       </c>
@@ -22406,7 +22428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>1253</v>
       </c>
@@ -22468,7 +22490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>1254</v>
       </c>
@@ -22530,7 +22552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>1255</v>
       </c>
@@ -22592,7 +22614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>1256</v>
       </c>
@@ -22654,7 +22676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>1257</v>
       </c>
@@ -22716,7 +22738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>1258</v>
       </c>
@@ -22778,7 +22800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>1259</v>
       </c>
@@ -22840,7 +22862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>1260</v>
       </c>
@@ -22902,7 +22924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>1261</v>
       </c>
@@ -22964,7 +22986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>1262</v>
       </c>
@@ -23026,7 +23048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>1263</v>
       </c>
@@ -23088,7 +23110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>1264</v>
       </c>
@@ -23150,7 +23172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>1265</v>
       </c>
@@ -23212,7 +23234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>1266</v>
       </c>
@@ -23274,7 +23296,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>1267</v>
       </c>
@@ -23336,7 +23358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>1268</v>
       </c>
@@ -23398,7 +23420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>1269</v>
       </c>
@@ -23460,7 +23482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>1270</v>
       </c>
@@ -23522,7 +23544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>1271</v>
       </c>
@@ -23584,7 +23606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>1272</v>
       </c>
@@ -23646,7 +23668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>1273</v>
       </c>
@@ -23708,7 +23730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>1274</v>
       </c>
@@ -23770,7 +23792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>1275</v>
       </c>
@@ -23832,7 +23854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>1276</v>
       </c>
@@ -23894,7 +23916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>1277</v>
       </c>
@@ -23956,7 +23978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>1278</v>
       </c>
@@ -24018,7 +24040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>1279</v>
       </c>
@@ -24080,7 +24102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>1280</v>
       </c>
@@ -24142,7 +24164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>1281</v>
       </c>
@@ -24204,7 +24226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>1282</v>
       </c>
@@ -24266,7 +24288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>1283</v>
       </c>
@@ -24328,7 +24350,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>1284</v>
       </c>
@@ -24390,7 +24412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>1285</v>
       </c>
@@ -24452,7 +24474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>1286</v>
       </c>
@@ -24514,7 +24536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>1287</v>
       </c>
@@ -24576,7 +24598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>1288</v>
       </c>
@@ -24638,7 +24660,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>1289</v>
       </c>
@@ -24700,7 +24722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>1290</v>
       </c>
@@ -24762,7 +24784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>1291</v>
       </c>
@@ -24824,7 +24846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>1292</v>
       </c>
@@ -24886,7 +24908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>1293</v>
       </c>
@@ -24948,7 +24970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>1294</v>
       </c>
@@ -25010,7 +25032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>1295</v>
       </c>
@@ -25072,7 +25094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>1296</v>
       </c>
@@ -25134,7 +25156,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>1297</v>
       </c>
@@ -25196,7 +25218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>1298</v>
       </c>
@@ -25258,7 +25280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>1299</v>
       </c>
@@ -25320,7 +25342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>1300</v>
       </c>
@@ -25382,7 +25404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>1301</v>
       </c>
@@ -25444,7 +25466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>1302</v>
       </c>
@@ -25506,7 +25528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>1303</v>
       </c>
@@ -25568,7 +25590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>1304</v>
       </c>
@@ -25630,7 +25652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>1305</v>
       </c>
@@ -25692,7 +25714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>1306</v>
       </c>
@@ -25754,7 +25776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>1307</v>
       </c>
@@ -25816,7 +25838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>1308</v>
       </c>
@@ -25878,7 +25900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>1309</v>
       </c>
@@ -25940,7 +25962,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>1310</v>
       </c>
@@ -26002,7 +26024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>1311</v>
       </c>
@@ -26064,7 +26086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>1312</v>
       </c>
@@ -26126,7 +26148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>1313</v>
       </c>
@@ -26188,7 +26210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>1314</v>
       </c>
@@ -26250,7 +26272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>1315</v>
       </c>
@@ -26312,7 +26334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>1316</v>
       </c>
@@ -26374,7 +26396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>1317</v>
       </c>
@@ -26436,7 +26458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>1318</v>
       </c>
@@ -26498,7 +26520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>1319</v>
       </c>
@@ -26560,7 +26582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>1320</v>
       </c>
@@ -26622,7 +26644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>1321</v>
       </c>
@@ -26684,7 +26706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>1322</v>
       </c>
@@ -26746,7 +26768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>1323</v>
       </c>
@@ -26808,7 +26830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>1324</v>
       </c>
@@ -26870,7 +26892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>1325</v>
       </c>
@@ -26932,7 +26954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>1326</v>
       </c>
@@ -26994,7 +27016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>1327</v>
       </c>
@@ -27056,7 +27078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>1328</v>
       </c>
@@ -27118,7 +27140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>1329</v>
       </c>
@@ -27180,7 +27202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>1330</v>
       </c>
@@ -27242,7 +27264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>1331</v>
       </c>
@@ -27304,7 +27326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>1332</v>
       </c>
@@ -27366,7 +27388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>1333</v>
       </c>
@@ -27428,7 +27450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>1334</v>
       </c>
@@ -27490,7 +27512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>1335</v>
       </c>
@@ -27552,7 +27574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>1336</v>
       </c>
@@ -27614,7 +27636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>1337</v>
       </c>
@@ -27676,7 +27698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>1338</v>
       </c>
@@ -27738,7 +27760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>1339</v>
       </c>
@@ -27800,7 +27822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>1340</v>
       </c>
@@ -27862,7 +27884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>1341</v>
       </c>
@@ -27924,7 +27946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>1342</v>
       </c>
@@ -27986,7 +28008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>1343</v>
       </c>
@@ -28048,7 +28070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>1344</v>
       </c>
@@ -28110,7 +28132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>1345</v>
       </c>
@@ -28172,7 +28194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>1346</v>
       </c>
@@ -28234,7 +28256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>1347</v>
       </c>
@@ -28296,7 +28318,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>1348</v>
       </c>
@@ -28358,7 +28380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>1349</v>
       </c>
@@ -28420,7 +28442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>1350</v>
       </c>
@@ -28482,7 +28504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>1351</v>
       </c>
@@ -28544,7 +28566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>1352</v>
       </c>
@@ -28606,7 +28628,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>1353</v>
       </c>
@@ -28668,7 +28690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>1354</v>
       </c>
@@ -28730,7 +28752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>1355</v>
       </c>
@@ -28792,7 +28814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>1356</v>
       </c>
@@ -28854,7 +28876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>1357</v>
       </c>
@@ -28916,7 +28938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>1358</v>
       </c>
@@ -28978,7 +29000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>1359</v>
       </c>
@@ -29040,7 +29062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>1360</v>
       </c>
@@ -29102,7 +29124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>1361</v>
       </c>
@@ -29164,7 +29186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>1362</v>
       </c>
@@ -29226,7 +29248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>1363</v>
       </c>
@@ -29288,7 +29310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>1364</v>
       </c>
@@ -29350,7 +29372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>1365</v>
       </c>
@@ -29412,7 +29434,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>1366</v>
       </c>
@@ -29474,7 +29496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>1367</v>
       </c>
@@ -29536,7 +29558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>1368</v>
       </c>
@@ -29598,7 +29620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>1369</v>
       </c>
@@ -29660,7 +29682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>1370</v>
       </c>
@@ -29722,7 +29744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>1371</v>
       </c>
@@ -29784,7 +29806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>1372</v>
       </c>
@@ -29846,7 +29868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>1373</v>
       </c>
@@ -29908,7 +29930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>1374</v>
       </c>
@@ -29970,7 +29992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>1375</v>
       </c>
@@ -30032,7 +30054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>1376</v>
       </c>
@@ -30094,7 +30116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>1377</v>
       </c>
@@ -30156,7 +30178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>1378</v>
       </c>
@@ -30218,7 +30240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>1379</v>
       </c>
@@ -30280,7 +30302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>1380</v>
       </c>
@@ -30342,7 +30364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>1381</v>
       </c>
@@ -30404,7 +30426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>1382</v>
       </c>
@@ -30466,7 +30488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>1383</v>
       </c>
@@ -30528,7 +30550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>1384</v>
       </c>
@@ -30590,7 +30612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>1385</v>
       </c>
@@ -30652,7 +30674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>1386</v>
       </c>
@@ -30714,7 +30736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>1387</v>
       </c>
@@ -30776,7 +30798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>1388</v>
       </c>
@@ -30838,7 +30860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>1389</v>
       </c>
@@ -30900,7 +30922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>1390</v>
       </c>
@@ -30962,7 +30984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>1391</v>
       </c>
@@ -31024,7 +31046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>1392</v>
       </c>
@@ -31086,7 +31108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>1393</v>
       </c>
@@ -31148,7 +31170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>1394</v>
       </c>
@@ -31210,7 +31232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>1395</v>
       </c>
@@ -31272,7 +31294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>1396</v>
       </c>
@@ -31334,7 +31356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>1397</v>
       </c>
@@ -31396,7 +31418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>1398</v>
       </c>
@@ -31458,7 +31480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>1399</v>
       </c>
@@ -31520,7 +31542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>1400</v>
       </c>
@@ -31582,7 +31604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>1401</v>
       </c>
@@ -31644,7 +31666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>1402</v>
       </c>
@@ -31706,7 +31728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>1403</v>
       </c>
@@ -31768,7 +31790,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>1404</v>
       </c>
@@ -31830,7 +31852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>1405</v>
       </c>
@@ -31892,7 +31914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>1406</v>
       </c>
@@ -31954,7 +31976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>1407</v>
       </c>
@@ -32016,7 +32038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>1408</v>
       </c>
@@ -32078,7 +32100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>1409</v>
       </c>
@@ -32140,7 +32162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>1410</v>
       </c>
@@ -32202,7 +32224,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>1411</v>
       </c>
@@ -32264,7 +32286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>1412</v>
       </c>
@@ -32326,7 +32348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>1413</v>
       </c>
@@ -32388,7 +32410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>1414</v>
       </c>
@@ -32450,7 +32472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>1415</v>
       </c>
@@ -32512,7 +32534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>1416</v>
       </c>
@@ -32574,7 +32596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>1417</v>
       </c>
@@ -32636,7 +32658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>1418</v>
       </c>
@@ -32698,7 +32720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>1419</v>
       </c>
@@ -32760,7 +32782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>1420</v>
       </c>
@@ -32822,7 +32844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>1421</v>
       </c>
@@ -32884,7 +32906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>1422</v>
       </c>
@@ -32946,7 +32968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>1423</v>
       </c>
@@ -33008,7 +33030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>1424</v>
       </c>
@@ -33070,7 +33092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>1425</v>
       </c>
